--- a/src/main/resources/com/ether/excelData/etherData.xlsx
+++ b/src/main/resources/com/ether/excelData/etherData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="2940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="2910"/>
   </bookViews>
   <sheets>
     <sheet name="Ether" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -26,42 +26,15 @@
     <t>arg2</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>arg3</t>
   </si>
   <si>
     <t>arg4</t>
   </si>
   <si>
-    <t>Lenovo Laptop</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Billing Address</t>
-  </si>
-  <si>
     <t>SO-01</t>
   </si>
   <si>
-    <t>SO-02</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -77,10 +50,10 @@
     <t>Test123!</t>
   </si>
   <si>
-    <t>DELL123@gmail.com</t>
-  </si>
-  <si>
-    <t>DELL123PC</t>
+    <t>DELL123PC23</t>
+  </si>
+  <si>
+    <t>DELL1231123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -446,14 +419,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -470,79 +443,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>
